--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\ASW\Loader_e5a\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1545" windowWidth="12735" windowHeight="4515"/>
+    <workbookView xWindow="2025" yWindow="1545" windowWidth="12735" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,17 +71,17 @@
     <t>ST1Oviedo</t>
   </si>
   <si>
-    <t>43,24&amp;-5,78</t>
-  </si>
-  <si>
-    <t>43,36&amp;-5,85</t>
+    <t>43.36&amp;-5.85</t>
+  </si>
+  <si>
+    <t>43.24&amp;-5.78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +93,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,11 +127,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -393,18 +406,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -468,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -480,12 +493,15 @@
         <v>2</v>
       </c>
       <c r="G4" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>

--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\ASW\Loader_e5a\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IsmaCadenas/git/Loader_e5a/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1545" windowWidth="12735" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="8400" windowWidth="14500" windowHeight="6380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -71,16 +74,16 @@
     <t>ST1Oviedo</t>
   </si>
   <si>
+    <t>43.24&amp;-5.78</t>
+  </si>
+  <si>
     <t>43.36&amp;-5.85</t>
-  </si>
-  <si>
-    <t>43.24&amp;-5.78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,22 +416,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -459,12 +462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -476,12 +479,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -494,14 +497,14 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>

--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="8400" windowWidth="14500" windowHeight="6380"/>
+    <workbookView xWindow="14320" yWindow="460" windowWidth="11280" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
